--- a/data/download_SH510300.xlsx
+++ b/data/download_SH510300.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3096"/>
+  <dimension ref="A1:F3097"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74745,6 +74745,30 @@
         <v>4.02</v>
       </c>
     </row>
+    <row r="3097">
+      <c r="A3097" t="inlineStr">
+        <is>
+          <t>20250224</t>
+        </is>
+      </c>
+      <c r="B3097" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3097" t="n">
+        <v>4.062</v>
+      </c>
+      <c r="D3097" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E3097" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="F3097" t="n">
+        <v>4.041</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH510300.xlsx
+++ b/data/download_SH510300.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3097"/>
+  <dimension ref="A1:F3101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74769,6 +74769,102 @@
         <v>4.041</v>
       </c>
     </row>
+    <row r="3098">
+      <c r="A3098" t="inlineStr">
+        <is>
+          <t>20250225</t>
+        </is>
+      </c>
+      <c r="B3098" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3098" t="n">
+        <v>4.021</v>
+      </c>
+      <c r="D3098" t="n">
+        <v>4.035</v>
+      </c>
+      <c r="E3098" t="n">
+        <v>4.051</v>
+      </c>
+      <c r="F3098" t="n">
+        <v>4.008</v>
+      </c>
+    </row>
+    <row r="3099">
+      <c r="A3099" t="inlineStr">
+        <is>
+          <t>20250226</t>
+        </is>
+      </c>
+      <c r="B3099" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3099" t="n">
+        <v>4.054</v>
+      </c>
+      <c r="D3099" t="n">
+        <v>4.028</v>
+      </c>
+      <c r="E3099" t="n">
+        <v>4.055</v>
+      </c>
+      <c r="F3099" t="n">
+        <v>4.019</v>
+      </c>
+    </row>
+    <row r="3100">
+      <c r="A3100" t="inlineStr">
+        <is>
+          <t>20250227</t>
+        </is>
+      </c>
+      <c r="B3100" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3100" t="n">
+        <v>4.067</v>
+      </c>
+      <c r="D3100" t="n">
+        <v>4.056</v>
+      </c>
+      <c r="E3100" t="n">
+        <v>4.069</v>
+      </c>
+      <c r="F3100" t="n">
+        <v>4.028</v>
+      </c>
+    </row>
+    <row r="3101">
+      <c r="A3101" t="inlineStr">
+        <is>
+          <t>20250228</t>
+        </is>
+      </c>
+      <c r="B3101" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3101" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="D3101" t="n">
+        <v>4.049</v>
+      </c>
+      <c r="E3101" t="n">
+        <v>4.065</v>
+      </c>
+      <c r="F3101" t="n">
+        <v>4.008</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH510300.xlsx
+++ b/data/download_SH510300.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3101"/>
+  <dimension ref="A1:F3102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="C3101" t="n">
-        <v>4.01</v>
+        <v>3.994</v>
       </c>
       <c r="D3101" t="n">
         <v>4.049</v>
@@ -74862,7 +74862,31 @@
         <v>4.065</v>
       </c>
       <c r="F3101" t="n">
-        <v>4.008</v>
+        <v>3.982</v>
+      </c>
+    </row>
+    <row r="3102">
+      <c r="A3102" t="inlineStr">
+        <is>
+          <t>20250303</t>
+        </is>
+      </c>
+      <c r="B3102" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3102" t="n">
+        <v>4.024</v>
+      </c>
+      <c r="D3102" t="n">
+        <v>3.995</v>
+      </c>
+      <c r="E3102" t="n">
+        <v>4.025</v>
+      </c>
+      <c r="F3102" t="n">
+        <v>3.988</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SH510300.xlsx
+++ b/data/download_SH510300.xlsx
@@ -74877,16 +74877,16 @@
         </is>
       </c>
       <c r="C3102" t="n">
-        <v>4.024</v>
+        <v>3.981</v>
       </c>
       <c r="D3102" t="n">
         <v>3.995</v>
       </c>
       <c r="E3102" t="n">
-        <v>4.025</v>
+        <v>4.027</v>
       </c>
       <c r="F3102" t="n">
-        <v>3.988</v>
+        <v>3.966</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SH510300.xlsx
+++ b/data/download_SH510300.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3102"/>
+  <dimension ref="A1:F3138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74889,6 +74889,870 @@
         <v>3.966</v>
       </c>
     </row>
+    <row r="3103">
+      <c r="A3103" t="inlineStr">
+        <is>
+          <t>20250304</t>
+        </is>
+      </c>
+      <c r="B3103" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3103" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="D3103" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E3103" t="n">
+        <v>3.984</v>
+      </c>
+      <c r="F3103" t="n">
+        <v>3.952</v>
+      </c>
+    </row>
+    <row r="3104">
+      <c r="A3104" t="inlineStr">
+        <is>
+          <t>20250305</t>
+        </is>
+      </c>
+      <c r="B3104" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3104" t="n">
+        <v>3.994</v>
+      </c>
+      <c r="D3104" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E3104" t="n">
+        <v>3.999</v>
+      </c>
+      <c r="F3104" t="n">
+        <v>3.968</v>
+      </c>
+    </row>
+    <row r="3105">
+      <c r="A3105" t="inlineStr">
+        <is>
+          <t>20250306</t>
+        </is>
+      </c>
+      <c r="B3105" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3105" t="n">
+        <v>4.049</v>
+      </c>
+      <c r="D3105" t="n">
+        <v>4.015</v>
+      </c>
+      <c r="E3105" t="n">
+        <v>4.062</v>
+      </c>
+      <c r="F3105" t="n">
+        <v>4.011</v>
+      </c>
+    </row>
+    <row r="3106">
+      <c r="A3106" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="B3106" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3106" t="n">
+        <v>4.039</v>
+      </c>
+      <c r="D3106" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E3106" t="n">
+        <v>4.061</v>
+      </c>
+      <c r="F3106" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="3107">
+      <c r="A3107" t="inlineStr">
+        <is>
+          <t>20250310</t>
+        </is>
+      </c>
+      <c r="B3107" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3107" t="n">
+        <v>4.023</v>
+      </c>
+      <c r="D3107" t="n">
+        <v>4.037</v>
+      </c>
+      <c r="E3107" t="n">
+        <v>4.042</v>
+      </c>
+      <c r="F3107" t="n">
+        <v>3.999</v>
+      </c>
+    </row>
+    <row r="3108">
+      <c r="A3108" t="inlineStr">
+        <is>
+          <t>20250311</t>
+        </is>
+      </c>
+      <c r="B3108" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3108" t="n">
+        <v>4.035</v>
+      </c>
+      <c r="D3108" t="n">
+        <v>3.994</v>
+      </c>
+      <c r="E3108" t="n">
+        <v>4.036</v>
+      </c>
+      <c r="F3108" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="3109">
+      <c r="A3109" t="inlineStr">
+        <is>
+          <t>20250312</t>
+        </is>
+      </c>
+      <c r="B3109" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3109" t="n">
+        <v>4.025</v>
+      </c>
+      <c r="D3109" t="n">
+        <v>4.038</v>
+      </c>
+      <c r="E3109" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F3109" t="n">
+        <v>4.018</v>
+      </c>
+    </row>
+    <row r="3110">
+      <c r="A3110" t="inlineStr">
+        <is>
+          <t>20250313</t>
+        </is>
+      </c>
+      <c r="B3110" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3110" t="n">
+        <v>4.005</v>
+      </c>
+      <c r="D3110" t="n">
+        <v>4.024</v>
+      </c>
+      <c r="E3110" t="n">
+        <v>4.033</v>
+      </c>
+      <c r="F3110" t="n">
+        <v>3.993</v>
+      </c>
+    </row>
+    <row r="3111">
+      <c r="A3111" t="inlineStr">
+        <is>
+          <t>20250314</t>
+        </is>
+      </c>
+      <c r="B3111" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3111" t="n">
+        <v>4.106</v>
+      </c>
+      <c r="D3111" t="n">
+        <v>4.012</v>
+      </c>
+      <c r="E3111" t="n">
+        <v>4.113</v>
+      </c>
+      <c r="F3111" t="n">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="3112">
+      <c r="A3112" t="inlineStr">
+        <is>
+          <t>20250317</t>
+        </is>
+      </c>
+      <c r="B3112" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3112" t="n">
+        <v>4.094</v>
+      </c>
+      <c r="D3112" t="n">
+        <v>4.118</v>
+      </c>
+      <c r="E3112" t="n">
+        <v>4.123</v>
+      </c>
+      <c r="F3112" t="n">
+        <v>4.088</v>
+      </c>
+    </row>
+    <row r="3113">
+      <c r="A3113" t="inlineStr">
+        <is>
+          <t>20250318</t>
+        </is>
+      </c>
+      <c r="B3113" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3113" t="n">
+        <v>4.103</v>
+      </c>
+      <c r="D3113" t="n">
+        <v>4.108</v>
+      </c>
+      <c r="E3113" t="n">
+        <v>4.115</v>
+      </c>
+      <c r="F3113" t="n">
+        <v>4.091</v>
+      </c>
+    </row>
+    <row r="3114">
+      <c r="A3114" t="inlineStr">
+        <is>
+          <t>20250319</t>
+        </is>
+      </c>
+      <c r="B3114" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3114" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="D3114" t="n">
+        <v>4.098</v>
+      </c>
+      <c r="E3114" t="n">
+        <v>4.121</v>
+      </c>
+      <c r="F3114" t="n">
+        <v>4.084</v>
+      </c>
+    </row>
+    <row r="3115">
+      <c r="A3115" t="inlineStr">
+        <is>
+          <t>20250320</t>
+        </is>
+      </c>
+      <c r="B3115" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3115" t="n">
+        <v>4.076</v>
+      </c>
+      <c r="D3115" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="E3115" t="n">
+        <v>4.109</v>
+      </c>
+      <c r="F3115" t="n">
+        <v>4.068</v>
+      </c>
+    </row>
+    <row r="3116">
+      <c r="A3116" t="inlineStr">
+        <is>
+          <t>20250321</t>
+        </is>
+      </c>
+      <c r="B3116" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3116" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="D3116" t="n">
+        <v>4.063</v>
+      </c>
+      <c r="E3116" t="n">
+        <v>4.079</v>
+      </c>
+      <c r="F3116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3117">
+      <c r="A3117" t="inlineStr">
+        <is>
+          <t>20250324</t>
+        </is>
+      </c>
+      <c r="B3117" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3117" t="n">
+        <v>4.027</v>
+      </c>
+      <c r="D3117" t="n">
+        <v>4.009</v>
+      </c>
+      <c r="E3117" t="n">
+        <v>4.031</v>
+      </c>
+      <c r="F3117" t="n">
+        <v>4.004</v>
+      </c>
+    </row>
+    <row r="3118">
+      <c r="A3118" t="inlineStr">
+        <is>
+          <t>20250325</t>
+        </is>
+      </c>
+      <c r="B3118" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3118" t="n">
+        <v>4.029</v>
+      </c>
+      <c r="D3118" t="n">
+        <v>4.028</v>
+      </c>
+      <c r="E3118" t="n">
+        <v>4.039</v>
+      </c>
+      <c r="F3118" t="n">
+        <v>4.017</v>
+      </c>
+    </row>
+    <row r="3119">
+      <c r="A3119" t="inlineStr">
+        <is>
+          <t>20250326</t>
+        </is>
+      </c>
+      <c r="B3119" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3119" t="n">
+        <v>4.013</v>
+      </c>
+      <c r="D3119" t="n">
+        <v>4.025</v>
+      </c>
+      <c r="E3119" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F3119" t="n">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="3120">
+      <c r="A3120" t="inlineStr">
+        <is>
+          <t>20250327</t>
+        </is>
+      </c>
+      <c r="B3120" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3120" t="n">
+        <v>4.027</v>
+      </c>
+      <c r="D3120" t="n">
+        <v>4.011</v>
+      </c>
+      <c r="E3120" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F3120" t="n">
+        <v>3.995</v>
+      </c>
+    </row>
+    <row r="3121">
+      <c r="A3121" t="inlineStr">
+        <is>
+          <t>20250328</t>
+        </is>
+      </c>
+      <c r="B3121" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3121" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="D3121" t="n">
+        <v>4.027</v>
+      </c>
+      <c r="E3121" t="n">
+        <v>4.029</v>
+      </c>
+      <c r="F3121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3122">
+      <c r="A3122" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+      <c r="B3122" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3122" t="n">
+        <v>3.984</v>
+      </c>
+      <c r="D3122" t="n">
+        <v>4.004</v>
+      </c>
+      <c r="E3122" t="n">
+        <v>4.024</v>
+      </c>
+      <c r="F3122" t="n">
+        <v>3.969</v>
+      </c>
+    </row>
+    <row r="3123">
+      <c r="A3123" t="inlineStr">
+        <is>
+          <t>20250401</t>
+        </is>
+      </c>
+      <c r="B3123" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3123" t="n">
+        <v>3.982</v>
+      </c>
+      <c r="D3123" t="n">
+        <v>3.988</v>
+      </c>
+      <c r="E3123" t="n">
+        <v>4.003</v>
+      </c>
+      <c r="F3123" t="n">
+        <v>3.979</v>
+      </c>
+    </row>
+    <row r="3124">
+      <c r="A3124" t="inlineStr">
+        <is>
+          <t>20250402</t>
+        </is>
+      </c>
+      <c r="B3124" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3124" t="n">
+        <v>3.979</v>
+      </c>
+      <c r="D3124" t="n">
+        <v>3.983</v>
+      </c>
+      <c r="E3124" t="n">
+        <v>3.996</v>
+      </c>
+      <c r="F3124" t="n">
+        <v>3.971</v>
+      </c>
+    </row>
+    <row r="3125">
+      <c r="A3125" t="inlineStr">
+        <is>
+          <t>20250403</t>
+        </is>
+      </c>
+      <c r="B3125" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3125" t="n">
+        <v>3.959</v>
+      </c>
+      <c r="D3125" t="n">
+        <v>3.948</v>
+      </c>
+      <c r="E3125" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="F3125" t="n">
+        <v>3.943</v>
+      </c>
+    </row>
+    <row r="3126">
+      <c r="A3126" t="inlineStr">
+        <is>
+          <t>20250407</t>
+        </is>
+      </c>
+      <c r="B3126" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3126" t="n">
+        <v>3.695</v>
+      </c>
+      <c r="D3126" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E3126" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F3126" t="n">
+        <v>3.604</v>
+      </c>
+    </row>
+    <row r="3127">
+      <c r="A3127" t="inlineStr">
+        <is>
+          <t>20250408</t>
+        </is>
+      </c>
+      <c r="B3127" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3127" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="D3127" t="n">
+        <v>3.698</v>
+      </c>
+      <c r="E3127" t="n">
+        <v>3.739</v>
+      </c>
+      <c r="F3127" t="n">
+        <v>3.671</v>
+      </c>
+    </row>
+    <row r="3128">
+      <c r="A3128" t="inlineStr">
+        <is>
+          <t>20250409</t>
+        </is>
+      </c>
+      <c r="B3128" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3128" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="D3128" t="n">
+        <v>3.695</v>
+      </c>
+      <c r="E3128" t="n">
+        <v>3.774</v>
+      </c>
+      <c r="F3128" t="n">
+        <v>3.678</v>
+      </c>
+    </row>
+    <row r="3129">
+      <c r="A3129" t="inlineStr">
+        <is>
+          <t>20250410</t>
+        </is>
+      </c>
+      <c r="B3129" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3129" t="n">
+        <v>3.829</v>
+      </c>
+      <c r="D3129" t="n">
+        <v>3.817</v>
+      </c>
+      <c r="E3129" t="n">
+        <v>3.847</v>
+      </c>
+      <c r="F3129" t="n">
+        <v>3.798</v>
+      </c>
+    </row>
+    <row r="3130">
+      <c r="A3130" t="inlineStr">
+        <is>
+          <t>20250411</t>
+        </is>
+      </c>
+      <c r="B3130" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3130" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="D3130" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E3130" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="F3130" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="3131">
+      <c r="A3131" t="inlineStr">
+        <is>
+          <t>20250414</t>
+        </is>
+      </c>
+      <c r="B3131" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3131" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="D3131" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="E3131" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="F3131" t="n">
+        <v>3.842</v>
+      </c>
+    </row>
+    <row r="3132">
+      <c r="A3132" t="inlineStr">
+        <is>
+          <t>20250415</t>
+        </is>
+      </c>
+      <c r="B3132" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3132" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="D3132" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="E3132" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="F3132" t="n">
+        <v>3.825</v>
+      </c>
+    </row>
+    <row r="3133">
+      <c r="A3133" t="inlineStr">
+        <is>
+          <t>20250416</t>
+        </is>
+      </c>
+      <c r="B3133" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3133" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="D3133" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="E3133" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="F3133" t="n">
+        <v>3.811</v>
+      </c>
+    </row>
+    <row r="3134">
+      <c r="A3134" t="inlineStr">
+        <is>
+          <t>20250417</t>
+        </is>
+      </c>
+      <c r="B3134" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3134" t="n">
+        <v>3.863</v>
+      </c>
+      <c r="D3134" t="n">
+        <v>3.842</v>
+      </c>
+      <c r="E3134" t="n">
+        <v>3.871</v>
+      </c>
+      <c r="F3134" t="n">
+        <v>3.841</v>
+      </c>
+    </row>
+    <row r="3135">
+      <c r="A3135" t="inlineStr">
+        <is>
+          <t>20250418</t>
+        </is>
+      </c>
+      <c r="B3135" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3135" t="n">
+        <v>3.873</v>
+      </c>
+      <c r="D3135" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="E3135" t="n">
+        <v>3.879</v>
+      </c>
+      <c r="F3135" t="n">
+        <v>3.847</v>
+      </c>
+    </row>
+    <row r="3136">
+      <c r="A3136" t="inlineStr">
+        <is>
+          <t>20250421</t>
+        </is>
+      </c>
+      <c r="B3136" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3136" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="D3136" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="E3136" t="n">
+        <v>3.886</v>
+      </c>
+      <c r="F3136" t="n">
+        <v>3.857</v>
+      </c>
+    </row>
+    <row r="3137">
+      <c r="A3137" t="inlineStr">
+        <is>
+          <t>20250422</t>
+        </is>
+      </c>
+      <c r="B3137" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3137" t="n">
+        <v>3.878</v>
+      </c>
+      <c r="D3137" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="E3137" t="n">
+        <v>3.893</v>
+      </c>
+      <c r="F3137" t="n">
+        <v>3.873</v>
+      </c>
+    </row>
+    <row r="3138">
+      <c r="A3138" t="inlineStr">
+        <is>
+          <t>20250423</t>
+        </is>
+      </c>
+      <c r="B3138" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3138" t="n">
+        <v>3.882</v>
+      </c>
+      <c r="D3138" t="n">
+        <v>3.892</v>
+      </c>
+      <c r="E3138" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="F3138" t="n">
+        <v>3.873</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH510300.xlsx
+++ b/data/download_SH510300.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3138"/>
+  <dimension ref="A1:F3140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75753,6 +75753,54 @@
         <v>3.873</v>
       </c>
     </row>
+    <row r="3139">
+      <c r="A3139" t="inlineStr">
+        <is>
+          <t>20250424</t>
+        </is>
+      </c>
+      <c r="B3139" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3139" t="n">
+        <v>3.882</v>
+      </c>
+      <c r="D3139" t="n">
+        <v>3.882</v>
+      </c>
+      <c r="E3139" t="n">
+        <v>3.903</v>
+      </c>
+      <c r="F3139" t="n">
+        <v>3.871</v>
+      </c>
+    </row>
+    <row r="3140">
+      <c r="A3140" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="B3140" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3140" t="n">
+        <v>3.882</v>
+      </c>
+      <c r="D3140" t="n">
+        <v>3.887</v>
+      </c>
+      <c r="E3140" t="n">
+        <v>3.899</v>
+      </c>
+      <c r="F3140" t="n">
+        <v>3.875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH510300.xlsx
+++ b/data/download_SH510300.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3140"/>
+  <dimension ref="A1:F3145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75801,6 +75801,126 @@
         <v>3.875</v>
       </c>
     </row>
+    <row r="3141">
+      <c r="A3141" t="inlineStr">
+        <is>
+          <t>20250428</t>
+        </is>
+      </c>
+      <c r="B3141" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3141" t="n">
+        <v>3.876</v>
+      </c>
+      <c r="D3141" t="n">
+        <v>3.883</v>
+      </c>
+      <c r="E3141" t="n">
+        <v>3.886</v>
+      </c>
+      <c r="F3141" t="n">
+        <v>3.864</v>
+      </c>
+    </row>
+    <row r="3142">
+      <c r="A3142" t="inlineStr">
+        <is>
+          <t>20250429</t>
+        </is>
+      </c>
+      <c r="B3142" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3142" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="D3142" t="n">
+        <v>3.874</v>
+      </c>
+      <c r="E3142" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F3142" t="n">
+        <v>3.862</v>
+      </c>
+    </row>
+    <row r="3143">
+      <c r="A3143" t="inlineStr">
+        <is>
+          <t>20250430</t>
+        </is>
+      </c>
+      <c r="B3143" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3143" t="n">
+        <v>3.866</v>
+      </c>
+      <c r="D3143" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E3143" t="n">
+        <v>3.886</v>
+      </c>
+      <c r="F3143" t="n">
+        <v>3.864</v>
+      </c>
+    </row>
+    <row r="3144">
+      <c r="A3144" t="inlineStr">
+        <is>
+          <t>20250506</t>
+        </is>
+      </c>
+      <c r="B3144" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3144" t="n">
+        <v>3.903</v>
+      </c>
+      <c r="D3144" t="n">
+        <v>3.886</v>
+      </c>
+      <c r="E3144" t="n">
+        <v>3.906</v>
+      </c>
+      <c r="F3144" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="3145">
+      <c r="A3145" t="inlineStr">
+        <is>
+          <t>20250507</t>
+        </is>
+      </c>
+      <c r="B3145" t="inlineStr">
+        <is>
+          <t>SH510300</t>
+        </is>
+      </c>
+      <c r="C3145" t="n">
+        <v>3.927</v>
+      </c>
+      <c r="D3145" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E3145" t="n">
+        <v>3.962</v>
+      </c>
+      <c r="F3145" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
